--- a/data/kazuya-mishima-tekken-8-frame-data.xlsx
+++ b/data/kazuya-mishima-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>16</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
@@ -637,10 +633,8 @@
         <v>10</v>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
+      <c r="F8" t="n">
+        <v>70</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -666,15 +660,9 @@
       <c r="D9" t="n">
         <v>64</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>70</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -705,10 +693,8 @@
         <v>22</v>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F10" t="n">
+        <v>70</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -760,15 +746,9 @@
       <c r="D12" t="n">
         <v>41</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>70</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -825,10 +805,8 @@
         <v>16</v>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F14" t="n">
+        <v>70</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
@@ -855,10 +833,8 @@
         <v>20</v>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F15" t="n">
+        <v>70</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -885,10 +861,8 @@
         <v>20</v>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F16" t="n">
+        <v>70</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
@@ -915,10 +889,8 @@
         <v>16</v>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F17" t="n">
+        <v>70</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
@@ -944,15 +916,11 @@
       <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-22	</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E18" t="n">
+        <v>22</v>
+      </c>
+      <c r="F18" t="n">
+        <v>70</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1009,10 +977,8 @@
         <v>18</v>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F20" t="n">
+        <v>70</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1042,15 +1008,11 @@
       <c r="D21" t="n">
         <v>10</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+1	</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
+      <c r="E21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1076,15 +1038,11 @@
       <c r="D22" t="n">
         <v>10</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1110,15 +1068,11 @@
       <c r="D23" t="n">
         <v>10</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E23" t="n">
+        <v>17</v>
+      </c>
+      <c r="F23" t="n">
+        <v>70</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1144,15 +1098,11 @@
       <c r="D24" t="n">
         <v>10</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+7	</t>
-        </is>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1178,15 +1128,11 @@
       <c r="D25" t="n">
         <v>10</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E25" t="n">
+        <v>12</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1212,15 +1158,11 @@
       <c r="D26" t="n">
         <v>10</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-14	</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
+      <c r="E26" t="n">
+        <v>14</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1246,15 +1188,11 @@
       <c r="D27" t="n">
         <v>10</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>70</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1280,15 +1218,11 @@
       <c r="D28" t="n">
         <v>12</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1314,15 +1248,11 @@
       <c r="D29" t="n">
         <v>12</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1348,15 +1278,11 @@
       <c r="D30" t="n">
         <v>14</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E30" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1382,15 +1308,11 @@
       <c r="D31" t="n">
         <v>14</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+7	</t>
-        </is>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1416,15 +1338,11 @@
       <c r="D32" t="n">
         <v>14</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-6	</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1450,15 +1368,11 @@
       <c r="D33" t="n">
         <v>12</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+2	</t>
-        </is>
+      <c r="E33" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1484,15 +1398,11 @@
       <c r="D34" t="n">
         <v>12</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E34" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" t="n">
+        <v>70</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1518,15 +1428,11 @@
       <c r="D35" t="n">
         <v>20</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E35" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" t="n">
+        <v>70</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1552,15 +1458,11 @@
       <c r="D36" t="n">
         <v>17</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+5	</t>
-        </is>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1586,15 +1488,11 @@
       <c r="D37" t="n">
         <v>19</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E37" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1620,15 +1518,11 @@
       <c r="D38" t="n">
         <v>25</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>70</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1654,15 +1548,11 @@
       <c r="D39" t="n">
         <v>15</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+9	</t>
-        </is>
+      <c r="E39" t="n">
+        <v>7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1732,15 +1622,11 @@
       <c r="D42" t="n">
         <v>15</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>18</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1766,15 +1652,11 @@
       <c r="D43" t="n">
         <v>14</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+5	</t>
-        </is>
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1800,15 +1682,11 @@
       <c r="D44" t="n">
         <v>18</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+9	</t>
-        </is>
+      <c r="E44" t="n">
+        <v>7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1834,15 +1712,11 @@
       <c r="D45" t="n">
         <v>18</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-11	</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+5	</t>
-        </is>
+      <c r="E45" t="n">
+        <v>11</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1868,15 +1742,11 @@
       <c r="D46" t="n">
         <v>18</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-18	</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E46" t="n">
+        <v>18</v>
+      </c>
+      <c r="F46" t="n">
+        <v>70</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1924,15 +1794,11 @@
       <c r="D48" t="n">
         <v>13</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+2	</t>
-        </is>
+      <c r="E48" t="n">
+        <v>9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1958,15 +1824,11 @@
       <c r="D49" t="n">
         <v>13</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-15	</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E49" t="n">
+        <v>15</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-4</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1992,10 +1854,8 @@
       <c r="D50" t="n">
         <v>18</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="E50" t="n">
+        <v>8</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2018,10 +1878,8 @@
       <c r="D51" t="n">
         <v>18</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
+      <c r="E51" t="n">
+        <v>11</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -2044,10 +1902,8 @@
       <c r="D52" t="n">
         <v>18</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
+      <c r="E52" t="n">
+        <v>19</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2070,15 +1926,11 @@
       <c r="D53" t="n">
         <v>10</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-5	</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2108,15 +1960,11 @@
       <c r="D54" t="n">
         <v>11</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-4	</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+7	</t>
-        </is>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2146,15 +1994,11 @@
       <c r="D55" t="n">
         <v>16</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
+      <c r="E55" t="n">
+        <v>17</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2184,15 +2028,11 @@
       <c r="D56" t="n">
         <v>12</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-15	</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-4	</t>
-        </is>
+      <c r="E56" t="n">
+        <v>15</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-4</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2222,15 +2062,11 @@
       <c r="D57" t="n">
         <v>13</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-5	</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+5	</t>
-        </is>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2260,15 +2096,11 @@
       <c r="D58" t="n">
         <v>13</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E58" t="n">
+        <v>12</v>
+      </c>
+      <c r="F58" t="n">
+        <v>70</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2298,15 +2130,11 @@
       <c r="D59" t="n">
         <v>16</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-18	</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E59" t="n">
+        <v>18</v>
+      </c>
+      <c r="F59" t="n">
+        <v>70</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2336,15 +2164,11 @@
       <c r="D60" t="n">
         <v>21</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-5	</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>70</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2374,15 +2198,11 @@
       <c r="D61" t="n">
         <v>11</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2412,15 +2232,11 @@
       <c r="D62" t="n">
         <v>11</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-15	</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E62" t="n">
+        <v>15</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-4</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2450,15 +2266,11 @@
       <c r="D63" t="n">
         <v>13</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="E63" t="n">
+        <v>9</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2488,15 +2300,11 @@
       <c r="D64" t="n">
         <v>23</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E64" t="n">
+        <v>11</v>
+      </c>
+      <c r="F64" t="n">
+        <v>70</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2574,10 +2382,8 @@
       <c r="D67" t="n">
         <v>20</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
+      <c r="E67" t="n">
+        <v>9</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
@@ -2604,15 +2410,11 @@
       <c r="D68" t="n">
         <v>19</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
+      <c r="E68" t="n">
+        <v>12</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-1</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2638,15 +2440,11 @@
       <c r="D69" t="n">
         <v>20</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E69" t="n">
+        <v>12</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2672,15 +2470,11 @@
       <c r="D70" t="n">
         <v>11</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+1	</t>
-        </is>
+      <c r="E70" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2706,16 +2500,10 @@
       <c r="D71" t="n">
         <v>11</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-14	</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KDN	</t>
-        </is>
-      </c>
+      <c r="E71" t="n">
+        <v>14</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
           <t xml:space="preserve">KDN	</t>
@@ -2740,15 +2528,11 @@
       <c r="D72" t="n">
         <v>14</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E72" t="n">
+        <v>8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2797,10 +2581,8 @@
         <v>14</v>
       </c>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F74" t="n">
+        <v>70</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
@@ -2822,15 +2604,11 @@
       <c r="D75" t="n">
         <v>14</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2856,15 +2634,11 @@
       <c r="D76" t="n">
         <v>14</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-14	</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E76" t="n">
+        <v>14</v>
+      </c>
+      <c r="F76" t="n">
+        <v>70</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2890,15 +2664,11 @@
       <c r="D77" t="n">
         <v>18</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+3	</t>
-        </is>
+      <c r="E77" t="n">
+        <v>8</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2924,15 +2694,11 @@
       <c r="D78" t="n">
         <v>18</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2958,15 +2724,11 @@
       <c r="D79" t="n">
         <v>18</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+7	</t>
-        </is>
+      <c r="E79" t="n">
+        <v>10</v>
+      </c>
+      <c r="F79" t="n">
+        <v>7</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2992,15 +2754,11 @@
       <c r="D80" t="n">
         <v>18</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-14	</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E80" t="n">
+        <v>14</v>
+      </c>
+      <c r="F80" t="n">
+        <v>70</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3026,15 +2784,11 @@
       <c r="D81" t="n">
         <v>18</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+1	</t>
-        </is>
+      <c r="E81" t="n">
+        <v>13</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3086,15 +2840,11 @@
       <c r="D83" t="n">
         <v>17</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-5	</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="E83" t="n">
+        <v>5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>16</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3146,15 +2896,11 @@
       <c r="D85" t="n">
         <v>22</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+5	</t>
-        </is>
+      <c r="E85" t="n">
+        <v>12</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3180,15 +2926,9 @@
       <c r="D86" t="n">
         <v>63</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>70</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3214,15 +2954,11 @@
       <c r="D87" t="n">
         <v>18</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
+      <c r="E87" t="n">
+        <v>12</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-1</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3248,15 +2984,11 @@
       <c r="D88" t="n">
         <v>15</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+9	</t>
-        </is>
+      <c r="E88" t="n">
+        <v>12</v>
+      </c>
+      <c r="F88" t="n">
+        <v>9</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3282,15 +3014,9 @@
       <c r="D89" t="n">
         <v>41</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>70</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3316,15 +3042,11 @@
       <c r="D90" t="n">
         <v>21</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E90" t="n">
+        <v>17</v>
+      </c>
+      <c r="F90" t="n">
+        <v>70</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3350,15 +3072,11 @@
       <c r="D91" t="n">
         <v>19</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E91" t="n">
+        <v>9</v>
+      </c>
+      <c r="F91" t="n">
+        <v>70</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3384,15 +3102,11 @@
       <c r="D92" t="n">
         <v>15</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-19	</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
+      <c r="E92" t="n">
+        <v>19</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-8</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3418,15 +3132,11 @@
       <c r="D93" t="n">
         <v>25</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
+      <c r="E93" t="n">
+        <v>12</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-1</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3452,15 +3162,11 @@
       <c r="D94" t="n">
         <v>25</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-23	</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E94" t="n">
+        <v>23</v>
+      </c>
+      <c r="F94" t="n">
+        <v>70</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3486,15 +3192,11 @@
       <c r="D95" t="n">
         <v>25</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-23	</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E95" t="n">
+        <v>23</v>
+      </c>
+      <c r="F95" t="n">
+        <v>70</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3520,15 +3222,11 @@
       <c r="D96" t="n">
         <v>25</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E96" t="n">
+        <v>17</v>
+      </c>
+      <c r="F96" t="n">
+        <v>70</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3554,15 +3252,11 @@
       <c r="D97" t="n">
         <v>23</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-11	</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E97" t="n">
+        <v>11</v>
+      </c>
+      <c r="F97" t="n">
+        <v>70</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3614,15 +3308,11 @@
       <c r="D99" t="n">
         <v>16</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="E99" t="n">
+        <v>12</v>
+      </c>
+      <c r="F99" t="n">
+        <v>70</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3652,15 +3342,11 @@
       <c r="D100" t="n">
         <v>20</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>70</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3686,15 +3372,11 @@
       <c r="D101" t="n">
         <v>17</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+5	</t>
-        </is>
+      <c r="E101" t="n">
+        <v>9</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3720,15 +3402,11 @@
       <c r="D102" t="n">
         <v>22</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E102" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>70</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3754,15 +3432,11 @@
       <c r="D103" t="n">
         <v>23</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E103" t="n">
+        <v>7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>70</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3788,15 +3462,11 @@
       <c r="D104" t="n">
         <v>19</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E104" t="n">
+        <v>9</v>
+      </c>
+      <c r="F104" t="n">
+        <v>70</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3822,15 +3492,11 @@
       <c r="D105" t="n">
         <v>23</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
+      <c r="E105" t="n">
+        <v>12</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-1</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3856,15 +3522,11 @@
       <c r="D106" t="n">
         <v>20</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-16	</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E106" t="n">
+        <v>16</v>
+      </c>
+      <c r="F106" t="n">
+        <v>70</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3894,15 +3556,11 @@
       <c r="D107" t="n">
         <v>11</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E107" t="n">
+        <v>10</v>
+      </c>
+      <c r="F107" t="n">
+        <v>70</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3928,15 +3586,11 @@
       <c r="D108" t="n">
         <v>11</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E108" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>70</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3962,15 +3616,11 @@
       <c r="D109" t="n">
         <v>20</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E109" t="n">
+        <v>9</v>
+      </c>
+      <c r="F109" t="n">
+        <v>70</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3996,15 +3646,11 @@
       <c r="D110" t="n">
         <v>16</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-23	</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E110" t="n">
+        <v>23</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-3</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4030,15 +3676,11 @@
       <c r="D111" t="n">
         <v>16</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-16	</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E111" t="n">
+        <v>16</v>
+      </c>
+      <c r="F111" t="n">
+        <v>70</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4087,405 +3729,11 @@
         <v>24</v>
       </c>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F113" t="n">
+        <v>70</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>FFF+3</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>30</v>
-      </c>
-      <c r="D114" t="n">
-        <v>22</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>SS 3</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>23</v>
-      </c>
-      <c r="D115" t="n">
-        <v>23</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>SS 1+2</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>25</v>
-      </c>
-      <c r="D116" t="n">
-        <v>19</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>(when enemy is down) D+3+4</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>25</v>
-      </c>
-      <c r="D117" t="n">
-        <v>23</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>F,N,D,DF+1</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>23</v>
-      </c>
-      <c r="D118" t="n">
-        <v>20</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-16	</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>F,N,D,DF : Wind God Step : WGS</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>F,N,D,DF+2</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>20</v>
-      </c>
-      <c r="D119" t="n">
-        <v>11</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>F,N,D,DF+2 (Perfect)</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>23</v>
-      </c>
-      <c r="D120" t="n">
-        <v>11</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>F,N,D,DF+3</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>30</v>
-      </c>
-      <c r="D121" t="n">
-        <v>20</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>F,N,D,DF+4</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>15</v>
-      </c>
-      <c r="D122" t="n">
-        <v>16</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-23	</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>F,N,D,DF+4,1</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>L,M</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>38</v>
-      </c>
-      <c r="D123" t="n">
-        <v>16</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-16	</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>F,N,D,DF+4,4</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>L,H</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>40</v>
-      </c>
-      <c r="D124" t="n">
-        <v>16</v>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>F,N,D,DF+1+2</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>25</v>
-      </c>
-      <c r="D125" t="n">
-        <v>24</v>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/kazuya-mishima-tekken-8-frame-data.xlsx
+++ b/data/kazuya-mishima-tekken-8-frame-data.xlsx
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -917,7 +917,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>22</v>
+        <v>-22</v>
       </c>
       <c r="F18" t="n">
         <v>70</v>
@@ -1009,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>8</v>
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F22" t="n">
         <v>8</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F23" t="n">
         <v>70</v>
@@ -1099,7 +1099,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F24" t="n">
         <v>7</v>
@@ -1129,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
@@ -1159,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F26" t="n">
         <v>-3</v>
@@ -1189,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F27" t="n">
         <v>70</v>
@@ -1219,7 +1219,7 @@
         <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
@@ -1249,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F29" t="n">
         <v>6</v>
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
@@ -1309,7 +1309,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F31" t="n">
         <v>7</v>
@@ -1339,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F32" t="n">
         <v>8</v>
@@ -1369,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F33" t="n">
         <v>2</v>
@@ -1399,7 +1399,7 @@
         <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F34" t="n">
         <v>70</v>
@@ -1429,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F35" t="n">
         <v>70</v>
@@ -1459,7 +1459,7 @@
         <v>17</v>
       </c>
       <c r="E36" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F36" t="n">
         <v>5</v>
@@ -1489,7 +1489,7 @@
         <v>19</v>
       </c>
       <c r="E37" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>7</v>
@@ -1519,7 +1519,7 @@
         <v>25</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F38" t="n">
         <v>70</v>
@@ -1549,7 +1549,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F39" t="n">
         <v>9</v>
@@ -1623,7 +1623,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F42" t="n">
         <v>18</v>
@@ -1653,7 +1653,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F43" t="n">
         <v>5</v>
@@ -1683,7 +1683,7 @@
         <v>18</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F44" t="n">
         <v>9</v>
@@ -1713,7 +1713,7 @@
         <v>18</v>
       </c>
       <c r="E45" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F45" t="n">
         <v>5</v>
@@ -1743,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="E46" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F46" t="n">
         <v>70</v>
@@ -1795,7 +1795,7 @@
         <v>13</v>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F48" t="n">
         <v>2</v>
@@ -1825,7 +1825,7 @@
         <v>13</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F49" t="n">
         <v>-4</v>
@@ -1855,7 +1855,7 @@
         <v>18</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -1879,7 +1879,7 @@
         <v>18</v>
       </c>
       <c r="E51" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>18</v>
       </c>
       <c r="E52" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F53" t="n">
         <v>6</v>
@@ -1961,7 +1961,7 @@
         <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F54" t="n">
         <v>7</v>
@@ -1995,7 +1995,7 @@
         <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F55" t="n">
         <v>-3</v>
@@ -2029,7 +2029,7 @@
         <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F56" t="n">
         <v>-4</v>
@@ -2063,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F57" t="n">
         <v>5</v>
@@ -2097,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F58" t="n">
         <v>70</v>
@@ -2131,7 +2131,7 @@
         <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F59" t="n">
         <v>70</v>
@@ -2165,7 +2165,7 @@
         <v>21</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F60" t="n">
         <v>70</v>
@@ -2199,7 +2199,7 @@
         <v>11</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F61" t="n">
         <v>8</v>
@@ -2233,7 +2233,7 @@
         <v>11</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F62" t="n">
         <v>-4</v>
@@ -2267,7 +2267,7 @@
         <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F63" t="n">
         <v>11</v>
@@ -2301,7 +2301,7 @@
         <v>23</v>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F64" t="n">
         <v>70</v>
@@ -2383,7 +2383,7 @@
         <v>20</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>19</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F68" t="n">
         <v>-1</v>
@@ -2441,7 +2441,7 @@
         <v>20</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F69" t="n">
         <v>4</v>
@@ -2471,7 +2471,7 @@
         <v>11</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -2501,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
@@ -2529,7 +2529,7 @@
         <v>14</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F72" t="n">
         <v>4</v>
@@ -2605,7 +2605,7 @@
         <v>14</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F75" t="n">
         <v>8</v>
@@ -2635,7 +2635,7 @@
         <v>14</v>
       </c>
       <c r="E76" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F76" t="n">
         <v>70</v>
@@ -2665,7 +2665,7 @@
         <v>18</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F77" t="n">
         <v>3</v>
@@ -2725,7 +2725,7 @@
         <v>18</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F79" t="n">
         <v>7</v>
@@ -2755,7 +2755,7 @@
         <v>18</v>
       </c>
       <c r="E80" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F80" t="n">
         <v>70</v>
@@ -2785,7 +2785,7 @@
         <v>18</v>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -2841,7 +2841,7 @@
         <v>17</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F83" t="n">
         <v>16</v>
@@ -2897,7 +2897,7 @@
         <v>22</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F85" t="n">
         <v>5</v>
@@ -2955,7 +2955,7 @@
         <v>18</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F87" t="n">
         <v>-1</v>
@@ -2985,7 +2985,7 @@
         <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F88" t="n">
         <v>9</v>
@@ -3043,7 +3043,7 @@
         <v>21</v>
       </c>
       <c r="E90" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F90" t="n">
         <v>70</v>
@@ -3073,7 +3073,7 @@
         <v>19</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F91" t="n">
         <v>70</v>
@@ -3103,7 +3103,7 @@
         <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F92" t="n">
         <v>-8</v>
@@ -3133,7 +3133,7 @@
         <v>25</v>
       </c>
       <c r="E93" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F93" t="n">
         <v>-1</v>
@@ -3163,7 +3163,7 @@
         <v>25</v>
       </c>
       <c r="E94" t="n">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="F94" t="n">
         <v>70</v>
@@ -3193,7 +3193,7 @@
         <v>25</v>
       </c>
       <c r="E95" t="n">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="F95" t="n">
         <v>70</v>
@@ -3223,7 +3223,7 @@
         <v>25</v>
       </c>
       <c r="E96" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F96" t="n">
         <v>70</v>
@@ -3253,7 +3253,7 @@
         <v>23</v>
       </c>
       <c r="E97" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F97" t="n">
         <v>70</v>
@@ -3309,7 +3309,7 @@
         <v>16</v>
       </c>
       <c r="E99" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F99" t="n">
         <v>70</v>
@@ -3343,7 +3343,7 @@
         <v>20</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F100" t="n">
         <v>70</v>
@@ -3373,7 +3373,7 @@
         <v>17</v>
       </c>
       <c r="E101" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F101" t="n">
         <v>5</v>
@@ -3403,7 +3403,7 @@
         <v>22</v>
       </c>
       <c r="E102" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="F102" t="n">
         <v>70</v>
@@ -3433,7 +3433,7 @@
         <v>23</v>
       </c>
       <c r="E103" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F103" t="n">
         <v>70</v>
@@ -3463,7 +3463,7 @@
         <v>19</v>
       </c>
       <c r="E104" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F104" t="n">
         <v>70</v>
@@ -3493,7 +3493,7 @@
         <v>23</v>
       </c>
       <c r="E105" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F105" t="n">
         <v>-1</v>
@@ -3523,7 +3523,7 @@
         <v>20</v>
       </c>
       <c r="E106" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F106" t="n">
         <v>70</v>
@@ -3557,7 +3557,7 @@
         <v>11</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F107" t="n">
         <v>70</v>
@@ -3587,7 +3587,7 @@
         <v>11</v>
       </c>
       <c r="E108" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F108" t="n">
         <v>70</v>
@@ -3617,7 +3617,7 @@
         <v>20</v>
       </c>
       <c r="E109" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F109" t="n">
         <v>70</v>
@@ -3647,7 +3647,7 @@
         <v>16</v>
       </c>
       <c r="E110" t="n">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="F110" t="n">
         <v>-3</v>
@@ -3677,7 +3677,7 @@
         <v>16</v>
       </c>
       <c r="E111" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F111" t="n">
         <v>70</v>
